--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F312"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7775,6 +7775,102 @@
       <c r="F312" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>362.29</v>
+      </c>
+      <c r="C313" t="n">
+        <v>358.21</v>
+      </c>
+      <c r="D313" t="n">
+        <v>356.3260869565217</v>
+      </c>
+      <c r="E313" t="n">
+        <v>365.7536842105263</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="C314" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="D314" t="n">
+        <v>365.2639130434782</v>
+      </c>
+      <c r="E314" t="n">
+        <v>369.4894736842105</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>373.3666666666667</v>
+      </c>
+      <c r="C315" t="n">
+        <v>365.5833333333333</v>
+      </c>
+      <c r="D315" t="n">
+        <v>365.0891304347826</v>
+      </c>
+      <c r="E315" t="n">
+        <v>370.0563157894737</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>370.61</v>
+      </c>
+      <c r="C316" t="n">
+        <v>370.89</v>
+      </c>
+      <c r="D316" t="n">
+        <v>364.8604347826087</v>
+      </c>
+      <c r="E316" t="n">
+        <v>369.6563157894737</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7789,7 +7885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11147,6 +11243,46 @@
       </c>
       <c r="B335" t="n">
         <v>0.34</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -11315,28 +11451,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02448776868953639</v>
+        <v>0.0132588997231759</v>
       </c>
       <c r="J2" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K2" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003984110788046724</v>
+        <v>0.0001200306433686293</v>
       </c>
       <c r="M2" t="n">
-        <v>6.440047168446743</v>
+        <v>6.407417160722899</v>
       </c>
       <c r="N2" t="n">
-        <v>72.3189603298479</v>
+        <v>71.75154008945303</v>
       </c>
       <c r="O2" t="n">
-        <v>8.504055522505006</v>
+        <v>8.470628081166888</v>
       </c>
       <c r="P2" t="n">
-        <v>371.9566674346175</v>
+        <v>372.0685924344868</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -11392,28 +11528,28 @@
         <v>0.1464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1805802937910451</v>
+        <v>0.1655402110696731</v>
       </c>
       <c r="J3" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K3" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02641615995092184</v>
+        <v>0.02272641393843755</v>
       </c>
       <c r="M3" t="n">
-        <v>5.683646278700832</v>
+        <v>5.685808736949902</v>
       </c>
       <c r="N3" t="n">
-        <v>58.10018735406477</v>
+        <v>58.0621833113012</v>
       </c>
       <c r="O3" t="n">
-        <v>7.622347889860759</v>
+        <v>7.619854546597408</v>
       </c>
       <c r="P3" t="n">
-        <v>367.278895618787</v>
+        <v>367.428514239251</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -11469,28 +11605,28 @@
         <v>0.1377</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09843930079976974</v>
+        <v>0.09302812140312462</v>
       </c>
       <c r="J4" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K4" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006932772233227191</v>
+        <v>0.006374040995009489</v>
       </c>
       <c r="M4" t="n">
-        <v>6.058064358963351</v>
+        <v>6.012429020414797</v>
       </c>
       <c r="N4" t="n">
-        <v>66.98331480791451</v>
+        <v>66.31914863567458</v>
       </c>
       <c r="O4" t="n">
-        <v>8.184333498087337</v>
+        <v>8.143656957146131</v>
       </c>
       <c r="P4" t="n">
-        <v>362.2677340264987</v>
+        <v>362.3216560979902</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -11546,28 +11682,28 @@
         <v>0.1102</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1325671813742575</v>
+        <v>0.1285262523404496</v>
       </c>
       <c r="J5" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K5" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009119844180346282</v>
+        <v>0.008858352720408691</v>
       </c>
       <c r="M5" t="n">
-        <v>7.328049791528461</v>
+        <v>7.248976935109398</v>
       </c>
       <c r="N5" t="n">
-        <v>91.65078906008257</v>
+        <v>90.48062246961942</v>
       </c>
       <c r="O5" t="n">
-        <v>9.573441860693706</v>
+        <v>9.512130280311526</v>
       </c>
       <c r="P5" t="n">
-        <v>366.752246274347</v>
+        <v>366.7922682025811</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -11604,7 +11740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F312"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21288,6 +21424,134 @@
         </is>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-35.4304147124338,174.3610444946815</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-35.43114466669395,174.3609280459945</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-35.431880479998256,174.36098572246732</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-35.43259424890206,174.36121302849622</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-35.43041882782664,174.3611160234206</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-35.431143014377945,174.36108323042097</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-35.431870681955054,174.36108344052585</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-35.432589293316724,174.3612537300386</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-35.43042171468717,174.3611661997542</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-35.4311438020576,174.36100925440667</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-35.4318708735603,174.36108152961208</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-35.432588541390295,174.36125990580047</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-35.430419972037384,174.3611359108284</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-35.4311431797358,174.36106770096512</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-35.431871124267616,174.36107902926224</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-35.43258907199764,174.36125554778837</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -11296,7 +11296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11387,35 +11387,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -11474,27 +11479,28 @@
       <c r="P2" t="n">
         <v>372.0685924344868</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.35706383621675 -35.4301856183732, 174.36724046600548 -35.43077103745536)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.3570638362168</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.4301856183732</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.3672404660055</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.43077103745536</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.3621521511111</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.43047832791428</v>
       </c>
     </row>
@@ -11551,27 +11557,28 @@
       <c r="P3" t="n">
         <v>367.428514239251</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.35698278872957 -35.43118660655352, 174.3671837974177 -35.4310779009119)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.3569827887296</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.43118660655352</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.3671837974177</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.4310779009119</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.3620832930736</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.43113225373271</v>
       </c>
     </row>
@@ -11628,27 +11635,28 @@
       <c r="P4" t="n">
         <v>362.3216560979902</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.35708995582178 -35.432271036505924, 174.36721593703368 -35.43125562322117)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.3570899558218</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.43227103650592</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.3672159370337</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.43125562322117</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.3621529464277</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.43176332986354</v>
       </c>
     </row>
@@ -11705,27 +11713,28 @@
       <c r="P5" t="n">
         <v>366.7922682025811</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.35722810442257 -35.433079361169646, 174.36731869560361 -35.43185069845735)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.3572281044226</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.43307936116965</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.3673186956036</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.43185069845735</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.3622734000131</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.4324650298135</v>
       </c>
     </row>

--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:F317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7869,6 +7869,30 @@
         <v>369.6563157894737</v>
       </c>
       <c r="F316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>368.5433333333333</v>
+      </c>
+      <c r="C317" t="n">
+        <v>363.5266666666667</v>
+      </c>
+      <c r="D317" t="n">
+        <v>357.291304347826</v>
+      </c>
+      <c r="E317" t="n">
+        <v>361.3431578947368</v>
+      </c>
+      <c r="F317" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7885,7 +7909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11283,6 +11307,16 @@
       </c>
       <c r="B339" t="n">
         <v>-0.33</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11456,28 +11490,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0132588997231759</v>
+        <v>0.01035996719918824</v>
       </c>
       <c r="J2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K2" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001200306433686293</v>
+        <v>7.384157473633302e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.407417160722899</v>
+        <v>6.398073849346557</v>
       </c>
       <c r="N2" t="n">
-        <v>71.75154008945303</v>
+        <v>71.55898964274319</v>
       </c>
       <c r="O2" t="n">
-        <v>8.470628081166888</v>
+        <v>8.459254674186324</v>
       </c>
       <c r="P2" t="n">
-        <v>372.0685924344868</v>
+        <v>372.0978761619285</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11534,28 +11568,28 @@
         <v>0.1464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1655402110696731</v>
+        <v>0.1594508872672057</v>
       </c>
       <c r="J3" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K3" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02272641393843755</v>
+        <v>0.02121179614791502</v>
       </c>
       <c r="M3" t="n">
-        <v>5.685808736949902</v>
+        <v>5.697085739689069</v>
       </c>
       <c r="N3" t="n">
-        <v>58.0621833113012</v>
+        <v>58.08679811134608</v>
       </c>
       <c r="O3" t="n">
-        <v>7.619854546597408</v>
+        <v>7.621469550640879</v>
       </c>
       <c r="P3" t="n">
-        <v>367.428514239251</v>
+        <v>367.4898493670602</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11612,28 +11646,28 @@
         <v>0.1377</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09302812140312462</v>
+        <v>0.08755475431011245</v>
       </c>
       <c r="J4" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K4" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006374040995009489</v>
+        <v>0.005680311559474571</v>
       </c>
       <c r="M4" t="n">
-        <v>6.012429020414797</v>
+        <v>6.021233156872632</v>
       </c>
       <c r="N4" t="n">
-        <v>66.31914863567458</v>
+        <v>66.2785685759212</v>
       </c>
       <c r="O4" t="n">
-        <v>8.143656957146131</v>
+        <v>8.141165062564522</v>
       </c>
       <c r="P4" t="n">
-        <v>362.3216560979902</v>
+        <v>362.3770480637702</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11690,28 +11724,28 @@
         <v>0.1102</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1285262523404496</v>
+        <v>0.1219478974481265</v>
       </c>
       <c r="J5" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K5" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008858352720408691</v>
+        <v>0.008026165636719429</v>
       </c>
       <c r="M5" t="n">
-        <v>7.248976935109398</v>
+        <v>7.256146869057797</v>
       </c>
       <c r="N5" t="n">
-        <v>90.48062246961942</v>
+        <v>90.42984445055424</v>
       </c>
       <c r="O5" t="n">
-        <v>9.512130280311526</v>
+        <v>9.509460786530131</v>
       </c>
       <c r="P5" t="n">
-        <v>366.7922682025811</v>
+        <v>366.8583040151004</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11749,7 +11783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:F317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21561,6 +21595,38 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-35.43041866557182,174.361113203291</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-35.43114404323877,174.36098660269352</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-35.43187942188773,174.3609962752774</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-35.43260009951926,174.36116497566798</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F317"/>
+  <dimension ref="A1:F320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7893,6 +7893,72 @@
         <v>361.3431578947368</v>
       </c>
       <c r="F317" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>361.63</v>
+      </c>
+      <c r="C318" t="n">
+        <v>372.43</v>
+      </c>
+      <c r="D318" t="n">
+        <v>360.5595652173913</v>
+      </c>
+      <c r="E318" t="n">
+        <v>368.4836842105263</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>376.96</v>
+      </c>
+      <c r="C319" t="n">
+        <v>374.33</v>
+      </c>
+      <c r="D319" t="n">
+        <v>362.9260869565218</v>
+      </c>
+      <c r="E319" t="n">
+        <v>368.4173684210527</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="n">
+        <v>385.2510526315789</v>
+      </c>
+      <c r="F320" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7909,7 +7975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11317,6 +11383,36 @@
       </c>
       <c r="B340" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -11490,28 +11586,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01035996719918824</v>
+        <v>0.005831945206552868</v>
       </c>
       <c r="J2" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K2" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>7.384157473633302e-05</v>
+        <v>2.363752779155348e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.398073849346557</v>
+        <v>6.405405249364518</v>
       </c>
       <c r="N2" t="n">
-        <v>71.55898964274319</v>
+        <v>71.53477470400009</v>
       </c>
       <c r="O2" t="n">
-        <v>8.459254674186324</v>
+        <v>8.457823284037099</v>
       </c>
       <c r="P2" t="n">
-        <v>372.0978761619285</v>
+        <v>372.1437469687685</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11568,28 +11664,28 @@
         <v>0.1464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1594508872672057</v>
+        <v>0.1621140867008994</v>
       </c>
       <c r="J3" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02121179614791502</v>
+        <v>0.02225534883943181</v>
       </c>
       <c r="M3" t="n">
-        <v>5.697085739689069</v>
+        <v>5.66922113657714</v>
       </c>
       <c r="N3" t="n">
-        <v>58.08679811134608</v>
+        <v>57.72306772462082</v>
       </c>
       <c r="O3" t="n">
-        <v>7.621469550640879</v>
+        <v>7.597569856514701</v>
       </c>
       <c r="P3" t="n">
-        <v>367.4898493670602</v>
+        <v>367.4629101211674</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11646,28 +11742,28 @@
         <v>0.1377</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08755475431011245</v>
+        <v>0.08335964739380598</v>
       </c>
       <c r="J4" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K4" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005680311559474571</v>
+        <v>0.005230087280589601</v>
       </c>
       <c r="M4" t="n">
-        <v>6.021233156872632</v>
+        <v>6.003018580967396</v>
       </c>
       <c r="N4" t="n">
-        <v>66.2785685759212</v>
+        <v>65.90003766496255</v>
       </c>
       <c r="O4" t="n">
-        <v>8.141165062564522</v>
+        <v>8.117883816916978</v>
       </c>
       <c r="P4" t="n">
-        <v>362.3770480637702</v>
+        <v>362.4196668212693</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11724,28 +11820,28 @@
         <v>0.1102</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1219478974481265</v>
+        <v>0.1309320430485133</v>
       </c>
       <c r="J5" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K5" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008026165636719429</v>
+        <v>0.009390332760249587</v>
       </c>
       <c r="M5" t="n">
-        <v>7.256146869057797</v>
+        <v>7.242475544364932</v>
       </c>
       <c r="N5" t="n">
-        <v>90.42984445055424</v>
+        <v>90.31240894010816</v>
       </c>
       <c r="O5" t="n">
-        <v>9.509460786530131</v>
+        <v>9.503284113405646</v>
       </c>
       <c r="P5" t="n">
-        <v>366.8583040151004</v>
+        <v>366.7676147789045</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11783,7 +11879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F317"/>
+  <dimension ref="A1:F320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21627,6 +21723,90 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-35.43041429520265,174.36103724292022</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-35.431142999132085,174.36108466221478</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-35.431875839080554,174.36103200747016</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-35.432590627514124,174.36124277193156</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-35.43042398623131,174.36120568157202</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-35.43114277630604,174.36110558843168</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-35.43187324479178,174.361057880865</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-35.432590715483144,174.361242049419</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-35.4325683851766,174.36142545287106</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F320"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7959,6 +7959,30 @@
         <v>385.2510526315789</v>
       </c>
       <c r="F320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>374.0666666666667</v>
+      </c>
+      <c r="C321" t="n">
+        <v>371.6333333333333</v>
+      </c>
+      <c r="D321" t="n">
+        <v>358.68</v>
+      </c>
+      <c r="E321" t="n">
+        <v>367.0721052631579</v>
+      </c>
+      <c r="F321" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7975,7 +7999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11413,6 +11437,16 @@
       </c>
       <c r="B343" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -11586,28 +11620,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005831945206552868</v>
+        <v>0.007142329177907097</v>
       </c>
       <c r="J2" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L2" t="n">
-        <v>2.363752779155348e-05</v>
+        <v>3.574026598784918e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.405405249364518</v>
+        <v>6.390184953324936</v>
       </c>
       <c r="N2" t="n">
-        <v>71.53477470400009</v>
+        <v>71.30591697303608</v>
       </c>
       <c r="O2" t="n">
-        <v>8.457823284037099</v>
+        <v>8.444283094084192</v>
       </c>
       <c r="P2" t="n">
-        <v>372.1437469687685</v>
+        <v>372.1303927002651</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11664,28 +11698,28 @@
         <v>0.1464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1621140867008994</v>
+        <v>0.1621102028444713</v>
       </c>
       <c r="J3" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K3" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02225534883943181</v>
+        <v>0.02243374463675696</v>
       </c>
       <c r="M3" t="n">
-        <v>5.66922113657714</v>
+        <v>5.650216703483952</v>
       </c>
       <c r="N3" t="n">
-        <v>57.72306772462082</v>
+        <v>57.52936624694976</v>
       </c>
       <c r="O3" t="n">
-        <v>7.597569856514701</v>
+        <v>7.584811549863962</v>
       </c>
       <c r="P3" t="n">
-        <v>367.4629101211674</v>
+        <v>367.4629495909505</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11742,28 +11776,28 @@
         <v>0.1377</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08335964739380598</v>
+        <v>0.07907047590024005</v>
       </c>
       <c r="J4" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K4" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005230087280589601</v>
+        <v>0.004737955429643614</v>
       </c>
       <c r="M4" t="n">
-        <v>6.003018580967396</v>
+        <v>6.005259546148838</v>
       </c>
       <c r="N4" t="n">
-        <v>65.90003766496255</v>
+        <v>65.79492823161092</v>
       </c>
       <c r="O4" t="n">
-        <v>8.117883816916978</v>
+        <v>8.111407290452805</v>
       </c>
       <c r="P4" t="n">
-        <v>362.4196668212693</v>
+        <v>362.4634636408835</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11820,28 +11854,28 @@
         <v>0.1102</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1309320430485133</v>
+        <v>0.1286815172286532</v>
       </c>
       <c r="J5" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K5" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009390332760249587</v>
+        <v>0.009144262918061252</v>
       </c>
       <c r="M5" t="n">
-        <v>7.242475544364932</v>
+        <v>7.228939081988622</v>
       </c>
       <c r="N5" t="n">
-        <v>90.31240894010816</v>
+        <v>90.04417184140873</v>
       </c>
       <c r="O5" t="n">
-        <v>9.503284113405646</v>
+        <v>9.489160755378144</v>
       </c>
       <c r="P5" t="n">
-        <v>366.7676147789045</v>
+        <v>366.7904046502222</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11879,7 +11913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F320"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21807,6 +21841,38 @@
         </is>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-35.43042215719678,174.36117389101724</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-35.43114309256157,174.3610758878887</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-35.431877899541526,174.36101145801342</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-35.43259249999671,174.36122739273515</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7985,6 +7985,54 @@
       <c r="F321" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>368.6266666666667</v>
+      </c>
+      <c r="C322" t="n">
+        <v>369.7233333333333</v>
+      </c>
+      <c r="D322" t="n">
+        <v>356.2626086956522</v>
+      </c>
+      <c r="E322" t="n">
+        <v>363.1463157894737</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>371.01</v>
+      </c>
+      <c r="C323" t="n">
+        <v>355.78</v>
+      </c>
+      <c r="D323" t="n">
+        <v>352.3134782608695</v>
+      </c>
+      <c r="E323" t="n">
+        <v>353.8131578947368</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7999,7 +8047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11447,6 +11495,36 @@
       </c>
       <c r="B344" t="n">
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -11620,28 +11698,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007142329177907097</v>
+        <v>0.003504742033782337</v>
       </c>
       <c r="J2" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K2" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L2" t="n">
-        <v>3.574026598784918e-05</v>
+        <v>8.741910965559541e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>6.390184953324936</v>
+        <v>6.363174631724913</v>
       </c>
       <c r="N2" t="n">
-        <v>71.30591697303608</v>
+        <v>70.88203499609476</v>
       </c>
       <c r="O2" t="n">
-        <v>8.444283094084192</v>
+        <v>8.419146928050059</v>
       </c>
       <c r="P2" t="n">
-        <v>372.1303927002651</v>
+        <v>372.1676015252884</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11698,28 +11776,28 @@
         <v>0.1464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1621102028444713</v>
+        <v>0.1491447131499968</v>
       </c>
       <c r="J3" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02243374463675696</v>
+        <v>0.01908718277064547</v>
       </c>
       <c r="M3" t="n">
-        <v>5.650216703483952</v>
+        <v>5.678835275215644</v>
       </c>
       <c r="N3" t="n">
-        <v>57.52936624694976</v>
+        <v>57.98638455602369</v>
       </c>
       <c r="O3" t="n">
-        <v>7.584811549863962</v>
+        <v>7.61487915570718</v>
       </c>
       <c r="P3" t="n">
-        <v>367.4629495909505</v>
+        <v>367.5952789830197</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11776,28 +11854,28 @@
         <v>0.1377</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07907047590024005</v>
+        <v>0.06437853059479728</v>
       </c>
       <c r="J4" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K4" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004737955429643614</v>
+        <v>0.003162875276346067</v>
       </c>
       <c r="M4" t="n">
-        <v>6.005259546148838</v>
+        <v>6.041988758777301</v>
       </c>
       <c r="N4" t="n">
-        <v>65.79492823161092</v>
+        <v>66.06034250399887</v>
       </c>
       <c r="O4" t="n">
-        <v>8.111407290452805</v>
+        <v>8.127751380547934</v>
       </c>
       <c r="P4" t="n">
-        <v>362.4634636408835</v>
+        <v>362.6140919979763</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11854,28 +11932,28 @@
         <v>0.1102</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1286815172286532</v>
+        <v>0.1118406391025749</v>
       </c>
       <c r="J5" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K5" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009144262918061252</v>
+        <v>0.0069579334022698</v>
       </c>
       <c r="M5" t="n">
-        <v>7.228939081988622</v>
+        <v>7.260103409669582</v>
       </c>
       <c r="N5" t="n">
-        <v>90.04417184140873</v>
+        <v>90.46595337645442</v>
       </c>
       <c r="O5" t="n">
-        <v>9.489160755378144</v>
+        <v>9.511359176082797</v>
       </c>
       <c r="P5" t="n">
-        <v>366.7904046502222</v>
+        <v>366.9616414606887</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11913,7 +11991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21873,6 +21951,70 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-35.430418718251964,174.3611141189175</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-35.4311433165552,174.36105485153345</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-35.431880549585664,174.36098502845368</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-35.43259770761051,174.36118462113305</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-35.43042022490118,174.3611403058357</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-35.43114495163673,174.36090128246187</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-35.431884878773126,174.3609418522461</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-35.43261008811266,174.36108293605457</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F323"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8033,6 +8033,30 @@
       <c r="F323" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>367.0966666666667</v>
+      </c>
+      <c r="C324" t="n">
+        <v>373.8933333333333</v>
+      </c>
+      <c r="D324" t="n">
+        <v>367.9960869565218</v>
+      </c>
+      <c r="E324" t="n">
+        <v>373.5863157894737</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8047,7 +8071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11525,6 +11549,16 @@
       </c>
       <c r="B347" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11732,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003504742033782337</v>
+        <v>-0.0002548512502174407</v>
       </c>
       <c r="J2" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L2" t="n">
-        <v>8.741910965559541e-06</v>
+        <v>4.654668783743432e-08</v>
       </c>
       <c r="M2" t="n">
-        <v>6.363174631724913</v>
+        <v>6.357817628947235</v>
       </c>
       <c r="N2" t="n">
-        <v>70.88203499609476</v>
+        <v>70.73454938797884</v>
       </c>
       <c r="O2" t="n">
-        <v>8.419146928050059</v>
+        <v>8.410383426930002</v>
       </c>
       <c r="P2" t="n">
-        <v>372.1676015252884</v>
+        <v>372.2062509917532</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11776,28 +11810,28 @@
         <v>0.1464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1491447131499968</v>
+        <v>0.1509070512013287</v>
       </c>
       <c r="J3" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01908718277064547</v>
+        <v>0.0196827305765197</v>
       </c>
       <c r="M3" t="n">
-        <v>5.678835275215644</v>
+        <v>5.667000965556404</v>
       </c>
       <c r="N3" t="n">
-        <v>57.98638455602369</v>
+        <v>57.81303263926403</v>
       </c>
       <c r="O3" t="n">
-        <v>7.61487915570718</v>
+        <v>7.603488188934342</v>
       </c>
       <c r="P3" t="n">
-        <v>367.5952789830197</v>
+        <v>367.577211424954</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11854,28 +11888,28 @@
         <v>0.1377</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06437853059479728</v>
+        <v>0.06704330129805811</v>
       </c>
       <c r="J4" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K4" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003162875276346067</v>
+        <v>0.003454423763581627</v>
       </c>
       <c r="M4" t="n">
-        <v>6.041988758777301</v>
+        <v>6.032379704340994</v>
       </c>
       <c r="N4" t="n">
-        <v>66.06034250399887</v>
+        <v>65.88779715161628</v>
       </c>
       <c r="O4" t="n">
-        <v>8.127751380547934</v>
+        <v>8.117129859230804</v>
       </c>
       <c r="P4" t="n">
-        <v>362.6140919979763</v>
+        <v>362.5866415148204</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11932,28 +11966,28 @@
         <v>0.1102</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1118406391025749</v>
+        <v>0.1145288236074696</v>
       </c>
       <c r="J5" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K5" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0069579334022698</v>
+        <v>0.007349754386069995</v>
       </c>
       <c r="M5" t="n">
-        <v>7.260103409669582</v>
+        <v>7.247988630218809</v>
       </c>
       <c r="N5" t="n">
-        <v>90.46595337645442</v>
+        <v>90.21418465311547</v>
       </c>
       <c r="O5" t="n">
-        <v>9.511359176082797</v>
+        <v>9.498114794690338</v>
       </c>
       <c r="P5" t="n">
-        <v>366.9616414606887</v>
+        <v>366.9341822408754</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -11991,7 +12025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F323"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22015,6 +22049,38 @@
         </is>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-35.43041775104337,174.3610973080152</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-35.43114282751727,174.36110077907307</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-35.4318676868086,174.3611133116244</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-35.43258385877354,174.36129836525438</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F324"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8055,6 +8055,54 @@
         <v>373.5863157894737</v>
       </c>
       <c r="F324" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:11:39+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>358.2766666666667</v>
+      </c>
+      <c r="C325" t="n">
+        <v>358.5033333333333</v>
+      </c>
+      <c r="D325" t="n">
+        <v>351.4869565217391</v>
+      </c>
+      <c r="E325" t="n">
+        <v>353.9984210526316</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>366.76</v>
+      </c>
+      <c r="C326" t="n">
+        <v>370.68</v>
+      </c>
+      <c r="D326" t="n">
+        <v>363.74</v>
+      </c>
+      <c r="E326" t="n">
+        <v>371.7468421052632</v>
+      </c>
+      <c r="F326" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8071,7 +8119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11559,6 +11607,26 @@
       </c>
       <c r="B348" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12025,7 +12093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F324"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22081,6 +22149,70 @@
         </is>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:11:39+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-35.43041217532453,174.36100039811404</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-35.431144632297176,174.36093127670898</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-35.431885784835856,174.36093281580696</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-35.43260984236054,174.3610849545034</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-35.43041753821504,174.36109360888423</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-35.43114320436339,174.36106538806743</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-35.431872352542,174.361066779449</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-35.432586298874284,174.36127832413504</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -11800,28 +11800,28 @@
         <v>0.0655</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0002548512502174407</v>
+        <v>-0.01407521487581333</v>
       </c>
       <c r="J2" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>4.654668783743432e-08</v>
+        <v>0.0001427976332067926</v>
       </c>
       <c r="M2" t="n">
-        <v>6.357817628947235</v>
+        <v>6.374160344427751</v>
       </c>
       <c r="N2" t="n">
-        <v>70.73454938797884</v>
+        <v>70.99035307401338</v>
       </c>
       <c r="O2" t="n">
-        <v>8.410383426930002</v>
+        <v>8.425577313989432</v>
       </c>
       <c r="P2" t="n">
-        <v>372.2062509917532</v>
+        <v>372.3484845313972</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11878,28 +11878,28 @@
         <v>0.1464</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1509070512013287</v>
+        <v>0.1410627815445792</v>
       </c>
       <c r="J3" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0196827305765197</v>
+        <v>0.01735189009055538</v>
       </c>
       <c r="M3" t="n">
-        <v>5.667000965556404</v>
+        <v>5.68019168370024</v>
       </c>
       <c r="N3" t="n">
-        <v>57.81303263926403</v>
+        <v>57.98412175471278</v>
       </c>
       <c r="O3" t="n">
-        <v>7.603488188934342</v>
+        <v>7.614730576633213</v>
       </c>
       <c r="P3" t="n">
-        <v>367.577211424954</v>
+        <v>367.6782277533994</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11956,28 +11956,28 @@
         <v>0.1377</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06704330129805811</v>
+        <v>0.05758731162368621</v>
       </c>
       <c r="J4" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003454423763581627</v>
+        <v>0.002570641731538093</v>
       </c>
       <c r="M4" t="n">
-        <v>6.032379704340994</v>
+        <v>6.042738651578656</v>
       </c>
       <c r="N4" t="n">
-        <v>65.88779715161628</v>
+        <v>65.99079161750882</v>
       </c>
       <c r="O4" t="n">
-        <v>8.117129859230804</v>
+        <v>8.123471648101495</v>
       </c>
       <c r="P4" t="n">
-        <v>362.5866415148204</v>
+        <v>362.6841382515825</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12034,28 +12034,28 @@
         <v>0.1102</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1145288236074696</v>
+        <v>0.1045628489705119</v>
       </c>
       <c r="J5" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007349754386069995</v>
+        <v>0.006175901205037859</v>
       </c>
       <c r="M5" t="n">
-        <v>7.247988630218809</v>
+        <v>7.260533092947457</v>
       </c>
       <c r="N5" t="n">
-        <v>90.21418465311547</v>
+        <v>90.4550682476561</v>
       </c>
       <c r="O5" t="n">
-        <v>9.498114794690338</v>
+        <v>9.510786941555157</v>
       </c>
       <c r="P5" t="n">
-        <v>366.9341822408754</v>
+        <v>367.0360578383559</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">

--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -11791,13 +11791,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0589</v>
+        <v>0.0517</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0655</v>
+        <v>0.1151</v>
       </c>
       <c r="I2" t="n">
         <v>-0.01405903372477297</v>
@@ -11869,13 +11869,13 @@
         <v>0.3331629713513145</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.103</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1464</v>
+        <v>0.1526</v>
       </c>
       <c r="I3" t="n">
         <v>0.1410480355258518</v>
@@ -11947,13 +11947,13 @@
         <v>0.666598317938968</v>
       </c>
       <c r="F4" t="n">
-        <v>0.115</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0975</v>
+        <v>0.0843</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1377</v>
+        <v>0.126</v>
       </c>
       <c r="I4" t="n">
         <v>0.05762456509859543</v>
@@ -12025,13 +12025,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.095</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0803</v>
+        <v>0.0709</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1102</v>
+        <v>0.1067</v>
       </c>
       <c r="I5" t="n">
         <v>0.1045834429688615</v>

--- a/data/nzd0072/nzd0072.xlsx
+++ b/data/nzd0072/nzd0072.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F327"/>
+  <dimension ref="A1:F328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8289,6 +8289,30 @@
       <c r="F327" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>368.85</v>
+      </c>
+      <c r="C328" t="n">
+        <v>367.83</v>
+      </c>
+      <c r="D328" t="n">
+        <v>359.23</v>
+      </c>
+      <c r="E328" t="n">
+        <v>366.19</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8303,7 +8327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11821,6 +11845,16 @@
       </c>
       <c r="B351" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -11988,34 +12022,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0514</v>
+        <v>0.0513</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1143</v>
+        <v>0.1137</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02960576607261835</v>
+        <v>0.02739767871101362</v>
       </c>
       <c r="J2" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K2" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002917509713518451</v>
+        <v>0.00251216422127376</v>
       </c>
       <c r="M2" t="n">
-        <v>2.980792119705808</v>
+        <v>2.980761260293842</v>
       </c>
       <c r="N2" t="n">
-        <v>15.40802184762248</v>
+        <v>15.39540429599683</v>
       </c>
       <c r="O2" t="n">
-        <v>3.9253053190322</v>
+        <v>3.923697783468655</v>
       </c>
       <c r="P2" t="n">
-        <v>371.4504621307646</v>
+        <v>371.4734426541637</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12070,34 +12104,34 @@
         <v>0.11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.0847</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1525</v>
+        <v>0.1536</v>
       </c>
       <c r="I3" t="n">
-        <v>0.157717466052279</v>
+        <v>0.1553205371696284</v>
       </c>
       <c r="J3" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K3" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07853928721494075</v>
+        <v>0.07667329786736377</v>
       </c>
       <c r="M3" t="n">
-        <v>2.477704900307989</v>
+        <v>2.479141966051866</v>
       </c>
       <c r="N3" t="n">
-        <v>15.01152969810712</v>
+        <v>15.00627837982212</v>
       </c>
       <c r="O3" t="n">
-        <v>3.874471537914187</v>
+        <v>3.873793796760757</v>
       </c>
       <c r="P3" t="n">
-        <v>367.3749794566561</v>
+        <v>367.399925335715</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12152,34 +12186,34 @@
         <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0843</v>
+        <v>0.0842</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1258</v>
+        <v>0.1256</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08363034160779542</v>
+        <v>0.08027945768513926</v>
       </c>
       <c r="J4" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K4" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01883966162034445</v>
+        <v>0.01743770906658082</v>
       </c>
       <c r="M4" t="n">
-        <v>2.992024821807347</v>
+        <v>2.996633613692112</v>
       </c>
       <c r="N4" t="n">
-        <v>18.73570879728218</v>
+        <v>18.75786924984884</v>
       </c>
       <c r="O4" t="n">
-        <v>4.328476498409362</v>
+        <v>4.331035586305987</v>
       </c>
       <c r="P4" t="n">
-        <v>362.1717503986113</v>
+        <v>362.206624501752</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12234,34 +12268,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0708</v>
+        <v>0.0709</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1066</v>
+        <v>0.1067</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1425809411223856</v>
+        <v>0.1400033492801471</v>
       </c>
       <c r="J5" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K5" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05186198443610324</v>
+        <v>0.05032624259313856</v>
       </c>
       <c r="M5" t="n">
-        <v>3.107616429012925</v>
+        <v>3.107968884101806</v>
       </c>
       <c r="N5" t="n">
-        <v>19.1170503252102</v>
+        <v>19.10560349178855</v>
       </c>
       <c r="O5" t="n">
-        <v>4.372304921344142</v>
+        <v>4.370995709422345</v>
       </c>
       <c r="P5" t="n">
-        <v>366.4036298576273</v>
+        <v>366.4304559745074</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -12303,7 +12337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F327"/>
+  <dimension ref="A1:F328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22775,6 +22809,38 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-35.43041885943472,174.36111657279653</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-35.431143538590625,174.36103399874133</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-35.43187729660801,174.36101747121336</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-35.4325936701228,174.36121778217057</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
